--- a/data/issue_id.xlsx
+++ b/data/issue_id.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/th_bri_railway/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A183F46-5FA4-44C8-AC93-B38A94A0E2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1A183F46-5FA4-44C8-AC93-B38A94A0E2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46243451-C706-4B0B-8C42-FEECB769176A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C597A4F4-C855-4042-A3F8-364711CEAAD3}"/>
   </bookViews>
@@ -33,36 +33,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>we have four phase1 in this project name row? or we could just have 1-4 china-thai railway projects
-	-Nuan Song
-Is that because only phase 1 mentioned in the meetings?
-	-Nuan Song
-The phase 1 (BKK-NakornRatchasima) is separated into four smaller stages. For example, the first stage construct a 3.5-km track. Should we record the information at this level of granularity?
-	-Phumthep Bunnak
-Alright, I think we can record information at this level, then we have more choice on the analysis
-	-Nuan Song</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -72,19 +42,10 @@
     <t>legal</t>
   </si>
   <si>
-    <t>issues related to investment such as funding, set-up of joint venture, loans</t>
-  </si>
-  <si>
     <t>financial</t>
   </si>
   <si>
-    <t>issues related to feasibility study, EIA, knowledge transfer, technical support, technical workshops, and project implementation such as actual construction and design works</t>
-  </si>
-  <si>
     <t>technical</t>
-  </si>
-  <si>
-    <t>issues related to the big picture of the project such as setting deadlines, government policies, forms cooperation (EPC or PPP), work delegation, setting up a new organization, procurement process, business plans</t>
   </si>
   <si>
     <t>project_design</t>
@@ -98,12 +59,21 @@
   <si>
     <t>issue_id</t>
   </si>
+  <si>
+    <t>issues related to feasibility study, EIA, knowledge transfer, technical support, technical workshops, and project implementation such as actual construction and design works, the bidding process</t>
+  </si>
+  <si>
+    <t>issues related to the big picture of the project such as setting deadlines, government policies, forms cooperation (EPC or PPP), work delegation, setting up a new organization, procurement process, business model</t>
+  </si>
+  <si>
+    <t>issues related to investment such as funding, joint venture, loans, cost-benefit analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,22 +94,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF434343"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,18 +111,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -191,38 +139,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -538,14 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C836F26-4C29-4CD7-8493-6E995C43FE46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C836F26-4C29-4CD7-8493-6E995C43FE46}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D999"/>
+  <dimension ref="A1:D973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1"/>
@@ -556,55 +486,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5">
-      <c r="A1" s="14" t="s">
-        <v>10</v>
+      <c r="A1" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>8</v>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="62">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="62">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="62">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="62">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="31">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="31">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="31">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="31">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -612,20 +542,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5">
-      <c r="A6" s="9"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.5">
-      <c r="A7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.5">
       <c r="A10" s="2"/>
@@ -634,7 +566,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.5">
@@ -648,51 +580,53 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="15.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="15.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="15.5">
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="15.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="15.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="15.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="15.5">
@@ -5445,138 +5379,7 @@
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="1:3" ht="15.5">
-      <c r="A974" s="2"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-    </row>
-    <row r="975" spans="1:3" ht="15.5">
-      <c r="A975" s="2"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-    </row>
-    <row r="976" spans="1:3" ht="15.5">
-      <c r="A976" s="2"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-    </row>
-    <row r="977" spans="1:3" ht="15.5">
-      <c r="A977" s="2"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-    </row>
-    <row r="978" spans="1:3" ht="15.5">
-      <c r="A978" s="2"/>
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-    </row>
-    <row r="979" spans="1:3" ht="15.5">
-      <c r="A979" s="2"/>
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-    </row>
-    <row r="980" spans="1:3" ht="15.5">
-      <c r="A980" s="2"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-    </row>
-    <row r="981" spans="1:3" ht="15.5">
-      <c r="A981" s="2"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-    </row>
-    <row r="982" spans="1:3" ht="15.5">
-      <c r="A982" s="2"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-    </row>
-    <row r="983" spans="1:3" ht="15.5">
-      <c r="A983" s="2"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-    </row>
-    <row r="984" spans="1:3" ht="15.5">
-      <c r="A984" s="2"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-    </row>
-    <row r="985" spans="1:3" ht="15.5">
-      <c r="A985" s="2"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-    </row>
-    <row r="986" spans="1:3" ht="15.5">
-      <c r="A986" s="2"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-    </row>
-    <row r="987" spans="1:3" ht="15.5">
-      <c r="A987" s="2"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-    </row>
-    <row r="988" spans="1:3" ht="15.5">
-      <c r="A988" s="2"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-    </row>
-    <row r="989" spans="1:3" ht="15.5">
-      <c r="A989" s="2"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-    </row>
-    <row r="990" spans="1:3" ht="15.5">
-      <c r="A990" s="2"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-    </row>
-    <row r="991" spans="1:3" ht="15.5">
-      <c r="A991" s="2"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-    </row>
-    <row r="992" spans="1:3" ht="15.5">
-      <c r="A992" s="2"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-    </row>
-    <row r="993" spans="1:3" ht="15.5">
-      <c r="A993" s="2"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-    </row>
-    <row r="994" spans="1:3" ht="15.5">
-      <c r="A994" s="2"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-    </row>
-    <row r="995" spans="1:3" ht="15.5">
-      <c r="A995" s="2"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-    </row>
-    <row r="996" spans="1:3" ht="15.5">
-      <c r="A996" s="2"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-    </row>
-    <row r="997" spans="1:3" ht="15.5">
-      <c r="A997" s="2"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-    </row>
-    <row r="998" spans="1:3" ht="15.5">
-      <c r="A998" s="2"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-    </row>
-    <row r="999" spans="1:3" ht="15.5">
-      <c r="A999" s="2"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>